--- a/data/sample_validation/validation_sequences.xlsx
+++ b/data/sample_validation/validation_sequences.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maria\Documents\GitHub\circ-enviropredict\data\sample_validation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01134E7D-D6C6-4AF4-85E0-CD8A04C819F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2F42FDE-60C5-4B2C-91A1-C90AEA2C1445}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{9AAD2840-A49E-4049-A495-3B61A1233020}"/>
   </bookViews>
@@ -47,9 +47,6 @@
     <t>Plant type</t>
   </si>
   <si>
-    <t>Potential function description</t>
-  </si>
-  <si>
     <t>Sequence type</t>
   </si>
   <si>
@@ -162,13 +159,16 @@
   </si>
   <si>
     <t xml:space="preserve">circ-EnviroPredict probability </t>
+  </si>
+  <si>
+    <t>Condition</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -199,7 +199,14 @@
     </font>
     <font>
       <b/>
-      <sz val="16"/>
+      <sz val="17"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="17"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
@@ -232,12 +239,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -575,21 +583,21 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="68" style="3" customWidth="1"/>
+    <col min="1" max="1" width="77.7109375" style="3" customWidth="1"/>
     <col min="2" max="2" width="28.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="37.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.5703125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="35.5703125" style="3" customWidth="1"/>
     <col min="6" max="6" width="26.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="44.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="42.28515625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" s="2" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -600,292 +608,292 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="1" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
+      <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="3" t="s">
+    </row>
+    <row r="3" spans="1:7" s="1" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
+      <c r="B3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="3" t="s">
+    </row>
+    <row r="4" spans="1:7" s="1" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="3" t="s">
+      <c r="G4" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="1" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="3" t="s">
+      <c r="B5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="1" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="3" t="s">
+      <c r="F6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="1" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="3" t="s">
+      <c r="F7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="1" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
+      <c r="F8" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="1" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="C9" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="3" t="s">
+      <c r="D9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="1" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="3" t="s">
+      <c r="F10" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="1" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
+      <c r="D11" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="E11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="1" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="3" t="s">
+      <c r="D12" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="1" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" s="3" t="s">
+      <c r="D13" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="3" t="s">
+      <c r="E13" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="F13" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="3" t="s">
+      <c r="G13" s="5" t="s">
         <v>39</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/data/sample_validation/validation_sequences.xlsx
+++ b/data/sample_validation/validation_sequences.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maria\Documents\GitHub\circ-enviropredict\data\sample_validation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2F42FDE-60C5-4B2C-91A1-C90AEA2C1445}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EB4D3B7-73B5-4F9B-AC7E-340ECBB67374}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{9AAD2840-A49E-4049-A495-3B61A1233020}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="12456" xr2:uid="{9AAD2840-A49E-4049-A495-3B61A1233020}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="43">
   <si>
     <t>circRNA name</t>
   </si>
@@ -122,9 +122,6 @@
     <t>Chu et al., 2017</t>
   </si>
   <si>
-    <t>0.59</t>
-  </si>
-  <si>
     <t>AT1G01060_circ_g.7</t>
   </si>
   <si>
@@ -149,19 +146,25 @@
     <t>Wang et al., 2020</t>
   </si>
   <si>
-    <t>0.72</t>
-  </si>
-  <si>
     <t>gma_circ_0000678</t>
   </si>
   <si>
-    <t>0.84</t>
-  </si>
-  <si>
     <t xml:space="preserve">circ-EnviroPredict probability </t>
   </si>
   <si>
     <t>Condition</t>
+  </si>
+  <si>
+    <t>0.67</t>
+  </si>
+  <si>
+    <t>0.69</t>
+  </si>
+  <si>
+    <t>0.78</t>
+  </si>
+  <si>
+    <t>0.73</t>
   </si>
 </sst>
 </file>
@@ -583,21 +586,21 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="77.7109375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="28.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.5703125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="35.5703125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="26.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="42.28515625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="77.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="28.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.5546875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="35.5546875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="26.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="42.33203125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" s="2" customFormat="1" ht="22.2" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -608,7 +611,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>3</v>
@@ -617,10 +620,10 @@
         <v>4</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" s="1" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="1" customFormat="1" ht="22.2" x14ac:dyDescent="0.45">
       <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
@@ -643,7 +646,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="1" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" s="1" customFormat="1" ht="22.2" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
         <v>12</v>
       </c>
@@ -666,7 +669,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="1" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" s="1" customFormat="1" ht="22.2" x14ac:dyDescent="0.45">
       <c r="A4" s="5" t="s">
         <v>14</v>
       </c>
@@ -689,7 +692,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="1" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" s="1" customFormat="1" ht="22.2" x14ac:dyDescent="0.45">
       <c r="A5" s="5" t="s">
         <v>14</v>
       </c>
@@ -712,7 +715,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="1" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" s="1" customFormat="1" ht="22.2" x14ac:dyDescent="0.45">
       <c r="A6" s="5" t="s">
         <v>18</v>
       </c>
@@ -735,7 +738,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="1" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" s="1" customFormat="1" ht="22.2" x14ac:dyDescent="0.45">
       <c r="A7" s="5" t="s">
         <v>23</v>
       </c>
@@ -758,7 +761,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="1" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" s="1" customFormat="1" ht="22.2" x14ac:dyDescent="0.45">
       <c r="A8" s="5" t="s">
         <v>25</v>
       </c>
@@ -778,10 +781,10 @@
         <v>27</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" s="1" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="1" customFormat="1" ht="22.2" x14ac:dyDescent="0.45">
       <c r="A9" s="5" t="s">
         <v>25</v>
       </c>
@@ -801,12 +804,12 @@
         <v>27</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" s="1" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="1" customFormat="1" ht="22.2" x14ac:dyDescent="0.45">
       <c r="A10" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>19</v>
@@ -824,12 +827,12 @@
         <v>27</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" s="1" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="1" customFormat="1" ht="22.2" x14ac:dyDescent="0.45">
       <c r="A11" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>19</v>
@@ -847,53 +850,53 @@
         <v>27</v>
       </c>
       <c r="G11" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="1" customFormat="1" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="A12" s="5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" s="1" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="5" t="s">
+      <c r="B12" s="5" t="s">
         <v>32</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>33</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>20</v>
       </c>
       <c r="D12" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="F12" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="G12" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="1" customFormat="1" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="A13" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="G12" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" s="1" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="5" t="s">
-        <v>38</v>
-      </c>
       <c r="B13" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>20</v>
       </c>
       <c r="D13" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="F13" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F13" s="5" t="s">
-        <v>36</v>
-      </c>
       <c r="G13" s="5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
